--- a/Task/Book1.xlsx
+++ b/Task/Book1.xlsx
@@ -33,7 +33,7 @@
     <t>Css lại breakcum</t>
   </si>
   <si>
-    <t>css trang NewsDetail.cshtml, ProductList</t>
+    <t>css trang NewsDetail.cshtml, ProductList(tạo các nút phân trang)</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="C6:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
